--- a/2ИСИП-321/_2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/_2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5E1A28-8349-4A12-BC23-20DCCE253745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B631A-83A6-49BF-AA22-33A2E543147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,10 +514,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -714,6 +714,9 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -771,6 +774,9 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
       <c r="D11" s="4">
         <v>5</v>
       </c>
@@ -798,6 +804,9 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -851,6 +860,9 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -955,6 +967,9 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -981,6 +996,9 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1177,6 +1195,9 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
       <c r="D26" s="4">
         <v>5</v>
       </c>
@@ -1285,6 +1306,9 @@
       </c>
       <c r="B30" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>

--- a/2ИСИП-321/_2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/_2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{749B631A-83A6-49BF-AA22-33A2E543147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA05A28-440E-4C9B-814D-E65E734041EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,10 +514,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -610,6 +610,9 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -636,6 +639,9 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -662,6 +668,9 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1225,6 +1234,9 @@
       </c>
       <c r="B27" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>

--- a/2ИСИП-321/_2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/_2ИСИП-321_Сети.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA05A28-440E-4C9B-814D-E65E734041EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C3B1C-A420-49D3-9CA5-CD703511F457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="260" windowWidth="9770" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Akopov V. F." sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Лаб_5</t>
+  </si>
+  <si>
+    <t>Лаб_6</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -569,7 +572,9 @@
       <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -642,7 +647,9 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -726,7 +733,9 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -761,8 +770,12 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -817,7 +830,9 @@
       <c r="C12">
         <v>5</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -872,7 +887,9 @@
       <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>5</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -897,6 +914,9 @@
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1037,9 +1057,15 @@
       <c r="D20" s="2">
         <v>5</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -1238,11 +1264,19 @@
       <c r="C27">
         <v>5</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="2">
+        <v>5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5</v>
+      </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>5</v>
+      </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>

--- a/2ИСИП-321/_2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/_2ИСИП-321_Сети.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C3B1C-A420-49D3-9CA5-CD703511F457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F347AA3-249A-4158-8CC3-E7C3BD62712C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="260" windowWidth="9770" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Akopov V. F." sheetId="1" r:id="rId1"/>
@@ -517,10 +517,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,9 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -678,7 +680,9 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -999,7 +1003,9 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1028,7 +1034,9 @@
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1087,6 +1095,9 @@
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
       </c>
       <c r="D21" s="4">
         <v>5</v>
@@ -1356,7 +1367,9 @@
       <c r="C30">
         <v>5</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>

--- a/2ИСИП-321/_2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/_2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F347AA3-249A-4158-8CC3-E7C3BD62712C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DA2354-7CAD-4D57-9D37-9290721681D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,10 +517,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,9 @@
       <c r="C15">
         <v>5</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>5</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>

--- a/2ИСИП-321/_2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/_2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DA2354-7CAD-4D57-9D37-9290721681D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCC08B9-4DEA-4213-BF22-81C1DDF4F8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -615,10 +615,10 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
         <v>5</v>
       </c>
       <c r="E5" s="2"/>
@@ -646,10 +646,10 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
@@ -677,10 +677,10 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
         <v>5</v>
       </c>
       <c r="E7" s="2"/>
@@ -734,10 +734,10 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="5">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4">
         <v>5</v>
       </c>
       <c r="E9" s="2"/>
@@ -765,7 +765,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>5</v>
       </c>
       <c r="D10" s="4">
@@ -774,10 +774,10 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
+      <c r="H10" s="4">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
         <v>5</v>
       </c>
       <c r="J10" s="2"/>
@@ -800,7 +800,7 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
       <c r="D11" s="4">
@@ -831,10 +831,10 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4">
         <v>5</v>
       </c>
       <c r="E12" s="2"/>
@@ -888,10 +888,10 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
         <v>5</v>
       </c>
       <c r="E14" s="2"/>
@@ -919,10 +919,10 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2">
+      <c r="C15" s="5">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
         <v>5</v>
       </c>
       <c r="E15" s="2"/>
@@ -1002,10 +1002,10 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="4">
         <v>5</v>
       </c>
       <c r="E18" s="2"/>
@@ -1033,10 +1033,10 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="5">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
         <v>5</v>
       </c>
       <c r="E19" s="2"/>
@@ -1064,16 +1064,16 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2">
-        <v>5</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="D20" s="4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4">
         <v>5</v>
       </c>
       <c r="H20" s="2"/>
@@ -1098,7 +1098,7 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>5</v>
       </c>
       <c r="D21" s="4">
@@ -1132,7 +1132,7 @@
       <c r="C22" s="5">
         <v>5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>5</v>
       </c>
       <c r="E22" s="2"/>
@@ -1243,7 +1243,7 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <v>5</v>
       </c>
       <c r="D26" s="4">
@@ -1274,20 +1274,20 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2">
-        <v>5</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4">
         <v>5</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="2">
-        <v>5</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="G27" s="4">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4">
         <v>5</v>
       </c>
       <c r="I27" s="2"/>
@@ -1366,10 +1366,10 @@
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30">
-        <v>5</v>
-      </c>
-      <c r="D30" s="2">
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4">
         <v>5</v>
       </c>
       <c r="E30" s="2"/>

--- a/2ИСИП-321/_2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/_2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCC08B9-4DEA-4213-BF22-81C1DDF4F8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D28C8-5788-4D23-A7AA-570438CF3108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10:I10"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -740,7 +740,9 @@
       <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -771,7 +773,9 @@
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>5</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="4">
@@ -806,7 +810,9 @@
       <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>5</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -837,7 +843,9 @@
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -950,7 +958,9 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -976,7 +986,9 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1397,7 +1409,9 @@
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>

--- a/2ИСИП-321/_2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/_2ИСИП-321_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7D28C8-5788-4D23-A7AA-570438CF3108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB3DDF2-0446-4B70-9F8A-5A816F42144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,10 +517,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -686,7 +686,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -743,9 +745,15 @@
       <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -777,7 +785,9 @@
         <v>5</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
       <c r="H10" s="4">
         <v>5</v>
       </c>
@@ -813,9 +823,13 @@
       <c r="E11" s="2">
         <v>5</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>5</v>
+      </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -846,7 +860,9 @@
       <c r="E12" s="2">
         <v>5</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -902,10 +918,14 @@
       <c r="D14" s="4">
         <v>5</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2">
+        <v>5</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1116,7 +1136,9 @@
       <c r="D21" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1147,8 +1169,12 @@
       <c r="D22" s="4">
         <v>5</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="E22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -1178,8 +1204,12 @@
       <c r="D23" s="4">
         <v>5</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="2">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1295,7 +1325,9 @@
       <c r="E27" s="4">
         <v>5</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
       <c r="G27" s="4">
         <v>5</v>
       </c>
@@ -1384,9 +1416,15 @@
       <c r="D30" s="4">
         <v>5</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="E30" s="2">
+        <v>5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>

--- a/2ИСИП-321/_2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/_2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB3DDF2-0446-4B70-9F8A-5A816F42144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0875977-CE82-429E-86BA-3C41CE7D843D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,7 +152,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -208,6 +214,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -520,7 +527,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -531,27 +538,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="6"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -689,8 +696,12 @@
       <c r="H7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -830,7 +841,9 @@
       <c r="H11" s="2">
         <v>5</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>5</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -866,7 +879,9 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -978,6 +993,9 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
       <c r="D16" s="2">
         <v>5</v>
       </c>
@@ -1043,7 +1061,9 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1096,6 +1116,9 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C20" s="6">
+        <v>5</v>
+      </c>
       <c r="D20" s="4">
         <v>5</v>
       </c>
@@ -1141,9 +1164,15 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="H21" s="2">
+        <v>5</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1176,8 +1205,12 @@
         <v>5</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="2">
+        <v>5</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1211,9 +1244,15 @@
         <v>5</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
+      <c r="H23" s="2">
+        <v>5</v>
+      </c>
+      <c r="I23" s="2">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1425,9 +1464,13 @@
       <c r="G30" s="2">
         <v>5</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="2">
+        <v>5</v>
+      </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2">
+        <v>5</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -1446,6 +1489,9 @@
       </c>
       <c r="B31" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="C31" s="6">
+        <v>5</v>
       </c>
       <c r="D31" s="2">
         <v>5</v>

--- a/2ИСИП-321/_2ИСИП-321_Сети.xlsx
+++ b/2ИСИП-321/_2ИСИП-321_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v5_Git0\2ИСИП-321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0_32423423\2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0875977-CE82-429E-86BA-3C41CE7D843D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473F9555-F9C3-493B-A92B-C4A10A3DA81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Лаб_6</t>
+  </si>
+  <si>
+    <t>Лаб_7</t>
   </si>
 </sst>
 </file>
@@ -152,7 +155,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,12 +165,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -214,7 +211,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -524,10 +520,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="J30" activeCellId="4" sqref="J7 J12 J21 J23 J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -538,27 +534,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -582,7 +578,9 @@
       <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -693,13 +691,13 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="H7" s="4">
+        <v>5</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
         <v>5</v>
       </c>
       <c r="K7" s="2"/>
@@ -753,16 +751,16 @@
       <c r="D9" s="4">
         <v>5</v>
       </c>
-      <c r="E9" s="2">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4">
         <v>5</v>
       </c>
       <c r="I9" s="2"/>
@@ -792,11 +790,11 @@
       <c r="D10" s="4">
         <v>5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>5</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>5</v>
       </c>
       <c r="H10" s="4">
@@ -831,17 +829,17 @@
       <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="2">
-        <v>5</v>
-      </c>
-      <c r="F11" s="2">
+      <c r="E11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4">
         <v>5</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>5</v>
-      </c>
-      <c r="I11" s="2">
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
         <v>5</v>
       </c>
       <c r="J11" s="2"/>
@@ -870,16 +868,16 @@
       <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="2">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="4">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4">
         <v>5</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>5</v>
       </c>
       <c r="K12" s="2"/>
@@ -933,12 +931,12 @@
       <c r="D14" s="4">
         <v>5</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>5</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2">
+      <c r="H14" s="4">
         <v>5</v>
       </c>
       <c r="I14" s="2"/>
@@ -993,10 +991,10 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4">
         <v>5</v>
       </c>
       <c r="E16" s="2"/>
@@ -1024,7 +1022,7 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="4">
         <v>5</v>
       </c>
       <c r="E17" s="2"/>
@@ -1061,7 +1059,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>5</v>
       </c>
       <c r="I18" s="2"/>
@@ -1116,7 +1114,7 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>5</v>
       </c>
       <c r="D20" s="4">
@@ -1159,18 +1157,18 @@
       <c r="D21" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>5</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>5</v>
-      </c>
-      <c r="I21" s="2">
-        <v>5</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="H21" s="4">
+        <v>5</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4">
         <v>5</v>
       </c>
       <c r="K21" s="2"/>
@@ -1198,17 +1196,17 @@
       <c r="D22" s="4">
         <v>5</v>
       </c>
-      <c r="E22" s="2">
-        <v>5</v>
-      </c>
-      <c r="F22" s="2">
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
         <v>5</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>5</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H22" s="4">
+        <v>5</v>
+      </c>
+      <c r="I22" s="4">
         <v>5</v>
       </c>
       <c r="J22" s="2"/>
@@ -1237,20 +1235,20 @@
       <c r="D23" s="4">
         <v>5</v>
       </c>
-      <c r="E23" s="2">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
         <v>5</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>5</v>
-      </c>
-      <c r="I23" s="2">
-        <v>5</v>
-      </c>
-      <c r="J23" s="2">
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>5</v>
+      </c>
+      <c r="J23" s="4">
         <v>5</v>
       </c>
       <c r="K23" s="2"/>
@@ -1364,7 +1362,7 @@
       <c r="E27" s="4">
         <v>5</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="4">
         <v>5</v>
       </c>
       <c r="G27" s="4">
@@ -1455,20 +1453,20 @@
       <c r="D30" s="4">
         <v>5</v>
       </c>
-      <c r="E30" s="2">
-        <v>5</v>
-      </c>
-      <c r="F30" s="2">
-        <v>5</v>
-      </c>
-      <c r="G30" s="2">
-        <v>5</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="E30" s="4">
+        <v>5</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5</v>
+      </c>
+      <c r="H30" s="4">
         <v>5</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2">
+      <c r="J30" s="4">
         <v>5</v>
       </c>
       <c r="K30" s="2"/>
@@ -1490,10 +1488,10 @@
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="6">
-        <v>5</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4">
         <v>5</v>
       </c>
       <c r="E31" s="2"/>
